--- a/va_facility_data_2025-02-20/Haverhill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Haverhill%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Haverhill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Haverhill%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re6e07a4708f24def95131882fd3c6439"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd1ee31137aba45a0ad5b69c3826fe0a7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Raa593c38a0ca48eda4ea97d58c637e63"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rea6c67f269b34fd6b98ea50e94053156"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R62ec8f057b3a4e8c9511ffe72b7569ee"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R82e10899f0eb4558a71f27812efc10e7"/>
   </x:sheets>
 </x:workbook>
 </file>
